--- a/DB/CORNER.xlsx
+++ b/DB/CORNER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12495"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="28035" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,63 +66,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>냉동식품/아이스크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피/차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into CORNER values(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식용유/조미료/밀가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통조림/캔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장류/케찹/소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세제/화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어/세안/바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩/호일/고무장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리/주방용품/그릇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부/김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김/미역/건어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유제품/냉장음료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부/김치/소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉동식품/아이스크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료/생수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피/차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into CORNER values(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식용유/조미료/밀가루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통조림/캔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장류/케찹/소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세제/화장지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤어/세안/바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랩/호일/고무장갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리/주방용품/그릇</t>
+    <t>유제품/음료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,14 +178,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,545 +495,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M23"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f>CONCATENATE(E4,A4,",'",B4,"','",C4,"','",D4,"')")</f>
         <v>insert into CORNER values(1,'생선/해산','1001','1구역')</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>1001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" ref="F5:F18" si="0">CONCATENATE(E5,A5,",'",B5,"','",C5,"','",D5,"')")</f>
         <v>insert into CORNER values(2,'정육/계란','1001','')</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>1001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="C6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into CORNER values(3,'과일','1001','')</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="C7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into CORNER values(4,'채소/건나물','1001','')</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>1001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="str">
+      <c r="C8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into CORNER values(5,'쌀/잡곡','1001','')</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(6,'김/미역/건어','1001','')</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(7,'유제품/음료','1001','')</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(8,'두부/김치','1001','')</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>1001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(6,'김/미역/건어','1001','')</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(9,'냉동식품/아이스크림','1001','')</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(10,'주류','1001','')</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>1001</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(7,'유제품/냉장음료','1001','')</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(11,'커피/차','1001','')</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(12,'과자','1001','')</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(13,'라면','1001','')</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>1001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(8,'두부/김치/소스','1001','')</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(9,'냉동식품/아이스크림','1001','')</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>1001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(10,'음료/생수','1001','')</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(14,'식용유/조미료/밀가루','1001','')</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>1001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(11,'커피/차','1001','')</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>1001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(12,'과자','1001','')</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>1001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(13,'라면','1001','')</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>1001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(14,'식용유/조미료/밀가루','1001','')</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>1001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="str">
+      <c r="C18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into CORNER values(15,'통조림/캔','1001','')</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>1001</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1" t="str">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="str">
         <f>CONCATENATE(E19,A19,",'",B20,"','",C19,"','",D19,"')")</f>
         <v>insert into CORNER values(16,'세제/화장지','1001','')</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>1001</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="C20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="str">
         <f>CONCATENATE(E20,A20,",'",B19,"','",C20,"','",D20,"')")</f>
         <v>insert into CORNER values(17,'장류/케찹/소스','1001','')</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>1001</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="str">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="str">
         <f>CONCATENATE(E21,A21,",'",B21,"','",C21,"','",D21,"')")</f>
         <v>insert into CORNER values(18,'헤어/세안/바디','1001','')</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>1001</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="str">
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="str">
         <f>CONCATENATE(E22,A22,",'",B22,"','",C22,"','",D22,"')")</f>
         <v>insert into CORNER values(19,'랩/호일/고무장갑','1001','')</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>1001</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="1" t="str">
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="str">
         <f>CONCATENATE(E23,A23,",'",B23,"','",C23,"','",D23,"')")</f>
         <v>insert into CORNER values(20,'조리/주방용품/그릇','1001','')</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F4:M4"/>
@@ -1043,12 +1069,6 @@
     <mergeCell ref="F21:M21"/>
     <mergeCell ref="F22:M22"/>
     <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/CORNER.xlsx
+++ b/DB/CORNER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="28035" windowHeight="12375"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="28035" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코너위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코너번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into CORNER values(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두부/김치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +111,10 @@
   </si>
   <si>
     <t>유제품/음료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부/김치/반찬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,13 +177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,32 +487,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -528,547 +519,541 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>1001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>CONCATENATE(E4,A4,",'",B4,"','",C4,"','",D4,"')")</f>
-        <v>insert into CORNER values(1,'생선/해산','1001','1구역')</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>CONCATENATE(D4,A4,",'",B4,"','",C4,"');")</f>
+        <v>insert into CORNER values(1,'생선/해산','1001');</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1001</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" ref="F5:F18" si="0">CONCATENATE(E5,A5,",'",B5,"','",C5,"','",D5,"')")</f>
-        <v>insert into CORNER values(2,'정육/계란','1001','')</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" ref="E5:E23" si="0">CONCATENATE(D5,A5,",'",B5,"','",C5,"');")</f>
+        <v>insert into CORNER values(2,'정육/계란','1001');</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(3,'과일','1001','')</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(3,'과일','1001');</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(4,'채소/건나물','1001','')</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(4,'채소/건나물','1001');</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(5,'쌀/잡곡','1001','')</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(5,'쌀/잡곡','1001');</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1001</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(6,'김/미역/건어','1001','')</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(6,'김/미역/건어','1001');</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>1001</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(7,'유제품/음료','1001','')</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(7,'유제품/음료','1001');</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>1001</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(8,'두부/김치','1001','')</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(8,'두부/김치/반찬','1001');</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>1001</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(9,'냉동식품/아이스크림','1001','')</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(9,'냉동식품/아이스크림','1001');</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>1001</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(10,'주류','1001','')</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(10,'주류','1001');</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>1001</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(11,'커피/차','1001','')</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(11,'커피/차','1001');</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(12,'과자','1001');</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(12,'과자','1001','')</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="1">
         <v>1001</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(13,'라면','1001','')</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(13,'라면','1001');</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>1001</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(14,'식용유/조미료/밀가루','1001','')</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(14,'식용유/조미료/밀가루','1001');</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>1001</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into CORNER values(15,'통조림/캔','1001','')</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(15,'통조림/캔','1001');</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>1001</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f>CONCATENATE(E19,A19,",'",B20,"','",C19,"','",D19,"')")</f>
-        <v>insert into CORNER values(16,'세제/화장지','1001','')</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(16,'장류/케찹/소스','1001');</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>1001</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f>CONCATENATE(E20,A20,",'",B19,"','",C20,"','",D20,"')")</f>
-        <v>insert into CORNER values(17,'장류/케찹/소스','1001','')</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(17,'세제/화장지','1001');</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>1001</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f>CONCATENATE(E21,A21,",'",B21,"','",C21,"','",D21,"')")</f>
-        <v>insert into CORNER values(18,'헤어/세안/바디','1001','')</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(18,'헤어/세안/바디','1001');</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>21</v>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>1001</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f>CONCATENATE(E22,A22,",'",B22,"','",C22,"','",D22,"')")</f>
-        <v>insert into CORNER values(19,'랩/호일/고무장갑','1001','')</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(19,'랩/호일/고무장갑','1001');</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>1001</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f>CONCATENATE(E23,A23,",'",B23,"','",C23,"','",D23,"')")</f>
-        <v>insert into CORNER values(20,'조리/주방용품/그릇','1001','')</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CORNER values(20,'조리/주방용품/그릇','1001');</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
